--- a/данные/расчет ошибки с коэффициентами.xlsx
+++ b/данные/расчет ошибки с коэффициентами.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +504,82 @@
         <v>15881</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>396</v>
+      </c>
+      <c r="G12">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>314</v>
+      </c>
+      <c r="G13">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>258</v>
+      </c>
+      <c r="G14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>230</v>
+      </c>
+      <c r="G15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>216</v>
+      </c>
+      <c r="G16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>SUM(F12:F16)</f>
+        <v>1414</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G12:G16)</f>
+        <v>1235</v>
+      </c>
+      <c r="H17">
+        <f>SUM(F17:G17)</f>
+        <v>2649</v>
+      </c>
+      <c r="K17">
+        <v>228121</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1390</v>
+      </c>
+      <c r="G18">
+        <v>1237</v>
+      </c>
+      <c r="H18">
+        <f>SUM(F18:G18)</f>
+        <v>2627</v>
+      </c>
+      <c r="K18">
+        <v>192897</v>
+      </c>
+      <c r="L18">
+        <f>K17-K18</f>
+        <v>35224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/данные/расчет ошибки с коэффициентами.xlsx
+++ b/данные/расчет ошибки с коэффициентами.xlsx
@@ -348,14 +348,14 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B1">
         <v>1225</v>
@@ -398,23 +398,23 @@
       </c>
       <c r="I2">
         <f>$A$1*I1</f>
-        <v>185.64000000000001</v>
+        <v>186.03</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:M2" si="0">$A$1*J1</f>
-        <v>128.51999999999998</v>
+        <v>128.79</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>71.400000000000006</v>
+        <v>71.55</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>42.839999999999996</v>
+        <v>42.93</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>28.560000000000002</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -429,23 +429,23 @@
       </c>
       <c r="I3">
         <f>$A$1*I1+(($A$1*(1-SUM($I$1:$M$1)))/5)</f>
-        <v>379.84800000000001</v>
+        <v>380.64599999999996</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:M3" si="1">$A$1*J1+(($A$1*(1-SUM($I$1:$M$1)))/5)</f>
-        <v>322.72799999999995</v>
+        <v>323.40599999999995</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>265.608</v>
+        <v>266.166</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>237.048</v>
+        <v>237.54599999999999</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>222.768</v>
+        <v>223.23599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(A1:A8)</f>
-        <v>18129</v>
+        <v>18132</v>
       </c>
       <c r="B9">
         <f>SUM(B1:B8)</f>
